--- a/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,11; 100,0</t>
+          <t>33,71; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,11; 100,0</t>
+          <t>33,71; 100,0</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,33; 100,0</t>
+          <t>53,64; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,25; 100,0</t>
+          <t>65,58; 100,0</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,32; 100,0</t>
+          <t>95,59; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,07; 100,0</t>
+          <t>96,63; 100,0</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,57; 100,0</t>
+          <t>90,48; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,47; 100,0</t>
+          <t>91,85; 100,0</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,0; 100,0</t>
+          <t>89,67; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,2; 100,0</t>
+          <t>93,47; 100,0</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,68; 100,0</t>
+          <t>88,81; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,68; 100,0</t>
+          <t>90,85; 100,0</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>88,46; 97,58</t>
+          <t>87,99; 97,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,23; 97,79</t>
+          <t>90,23; 98,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,71; 100,0</t>
+          <t>38,11; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,71; 100,0</t>
+          <t>38,11; 100,0</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,64; 100,0</t>
+          <t>51,33; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,58; 100,0</t>
+          <t>62,25; 100,0</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,59; 100,0</t>
+          <t>95,32; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,63; 100,0</t>
+          <t>97,07; 100,0</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,48; 100,0</t>
+          <t>88,57; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,85; 100,0</t>
+          <t>90,47; 100,0</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,67; 100,0</t>
+          <t>91,0; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,47; 100,0</t>
+          <t>92,2; 100,0</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,81; 100,0</t>
+          <t>88,68; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,85; 100,0</t>
+          <t>90,68; 100,0</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,99; 97,7</t>
+          <t>88,46; 97,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,23; 98,14</t>
+          <t>90,23; 97,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>77,69%</t>
+          <t>77,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77,69%</t>
+          <t>77,46%</t>
         </is>
       </c>
     </row>
@@ -584,19 +584,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,11; 100,0</t>
+          <t>37,98; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,11; 100,0</t>
+          <t>37,98; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>91,66%</t>
         </is>
       </c>
     </row>
@@ -634,19 +634,19 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,33; 100,0</t>
+          <t>49,45; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,25; 100,0</t>
+          <t>58,91; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,34%</t>
         </is>
       </c>
     </row>
@@ -684,19 +684,19 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,32; 100,0</t>
+          <t>94,94; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,07; 100,0</t>
+          <t>96,85; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,31%</t>
         </is>
       </c>
     </row>
@@ -734,19 +734,19 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,57; 100,0</t>
+          <t>88,48; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,47; 100,0</t>
+          <t>90,58; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,89%</t>
         </is>
       </c>
     </row>
@@ -784,19 +784,19 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,0; 100,0</t>
+          <t>90,84; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,2; 100,0</t>
+          <t>92,13; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,68; 100,0</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,68; 100,0</t>
+          <t>94,97; 100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,15%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>79,25; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>80,88; 100,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85,3; 100,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>94,51%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>95,56; 100</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>88,46; 97,58</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>90,23; 97,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>88,58; 97,57</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>90,4; 97,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>77,46%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77,46%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,98; 100,0</t>
+          <t>1,62; 8,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,98; 100,0</t>
+          <t>0,66; 3,6</t>
         </is>
       </c>
     </row>
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>0,29; 3,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,45; 100,0</t>
+          <t>0,64; 3,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,91; 100,0</t>
+          <t>0,68; 2,52</t>
         </is>
       </c>
     </row>
@@ -656,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>0,5; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,94; 100,0</t>
+          <t>2,22; 4,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,85; 100,0</t>
+          <t>1,53; 3,24</t>
         </is>
       </c>
     </row>
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>0,21; 1,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,48; 100,0</t>
+          <t>4,32; 8,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,58; 100,0</t>
+          <t>1,74; 4,24</t>
         </is>
       </c>
     </row>
@@ -756,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>0,92; 3,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,84; 100,0</t>
+          <t>4,12; 6,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,13; 100,0</t>
+          <t>2,8; 4,62</t>
         </is>
       </c>
     </row>
@@ -806,17 +807,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>0,42; 2,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,04; 100</t>
+          <t>1,07; 4,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>0,91; 2,99</t>
         </is>
       </c>
     </row>
@@ -856,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>0,82; 3,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,88; 100,0</t>
+          <t>3,01; 5,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,3; 100,0</t>
+          <t>2,3; 4,32</t>
         </is>
       </c>
     </row>
@@ -906,17 +907,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>0,73; 1,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,58; 97,57</t>
+          <t>3,25; 4,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,4; 97,81</t>
+          <t>2,15; 2,98</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cefaleas crónicas (15 días o más al mes durante más de 3 meses)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12766</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12766</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5052; 26806</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4711; 25605</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7713</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12147</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1242; 13675</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3293; 15565</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6332; 23536</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6979</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17497</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24476</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2694; 15633</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11966; 25833</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16409; 34796</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7234</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41671</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48905</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1871; 15852</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30715; 60368</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>27872; 67684</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29562</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39745</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5154; 17867</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22426; 37834</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30826; 50933</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3946</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16407</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20353</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1524; 9120</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6479; 27886</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8878; 29032</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>17878</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22496</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2295; 9551</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12740; 25044</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16240; 30451</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>37393</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>143493</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>180887</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>25102; 51787</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>118711; 173404</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>152673; 211370</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>